--- a/InsuranceAgency/Content/Reports/PoliciesReportResult.xlsx
+++ b/InsuranceAgency/Content/Reports/PoliciesReportResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Список полисов</t>
   </si>
@@ -62,46 +62,109 @@
     <t>ОСАГО</t>
   </si>
   <si>
-    <t>06-05-2022</t>
-  </si>
-  <si>
-    <t>06-11-2022</t>
-  </si>
-  <si>
-    <t>Тюрина Полина Павловна</t>
-  </si>
-  <si>
-    <t>авто</t>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2022</t>
+  </si>
+  <si>
+    <t>Шестаков Даниил Данилович</t>
+  </si>
+  <si>
+    <t>Hyundai Santa Fe (3G)</t>
+  </si>
+  <si>
+    <t>Мишина Екатерина Федоровна</t>
+  </si>
+  <si>
+    <t>КАСКО</t>
+  </si>
+  <si>
+    <t>07-01-2022</t>
+  </si>
+  <si>
+    <t>07-01-2023</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>25-08-2022</t>
+  </si>
+  <si>
+    <t>Бессонов Иван Савельевич</t>
+  </si>
+  <si>
+    <t>KIA Ceed (2G)</t>
   </si>
   <si>
     <t>Новиков Владимир Святославович</t>
   </si>
   <si>
-    <t>15-05-2022</t>
-  </si>
-  <si>
-    <t>15-11-2022</t>
-  </si>
-  <si>
-    <t>Клочкова Ксения Юрьевна</t>
-  </si>
-  <si>
-    <t>авто5</t>
-  </si>
-  <si>
-    <t>Мишина Екатерина Федоровна</t>
-  </si>
-  <si>
-    <t>КАСКО</t>
-  </si>
-  <si>
-    <t>15-05-2023</t>
-  </si>
-  <si>
-    <t>Лямина Ирина Алексеевна</t>
-  </si>
-  <si>
-    <t>авто2</t>
+    <t>22-01-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>Морозова Софья Яновна</t>
+  </si>
+  <si>
+    <t>Renault Fluence</t>
+  </si>
+  <si>
+    <t>22-12-2021</t>
+  </si>
+  <si>
+    <t>22-12-2022</t>
+  </si>
+  <si>
+    <t>Land Rover Discovery II</t>
+  </si>
+  <si>
+    <t>10-03-2022</t>
+  </si>
+  <si>
+    <t>10-03-2023</t>
+  </si>
+  <si>
+    <t>Гаврилов Борис Дмитриевич</t>
+  </si>
+  <si>
+    <t>Rover 45</t>
+  </si>
+  <si>
+    <t>Александров Филипп Сергеевич</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2022</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>17-08-2022</t>
+  </si>
+  <si>
+    <t>Колесова Эмилия Тимофеевна</t>
+  </si>
+  <si>
+    <t>Лада 2101</t>
+  </si>
+  <si>
+    <t>28-05-2022</t>
+  </si>
+  <si>
+    <t>28-05-2023</t>
+  </si>
+  <si>
+    <t>Mazda 626 IV</t>
+  </si>
+  <si>
+    <t>AgencyAdmin</t>
   </si>
 </sst>
 </file>
@@ -472,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -541,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="1">
-        <v>11</v>
+        <v>500000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -567,28 +630,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>600000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -596,28 +659,202 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>450000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
